--- a/Conditional Calculation/KosulluHesaplamaOlusturmaYinelenenleriKaldirma.xlsx
+++ b/Conditional Calculation/KosulluHesaplamaOlusturmaYinelenenleriKaldirma.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="39">
   <si>
     <t>ÜRÜN ADI</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Computer</t>
+  </si>
+  <si>
+    <t>Ortalama</t>
+  </si>
+  <si>
+    <t>Sayısı</t>
   </si>
 </sst>
 </file>
@@ -548,10 +554,10 @@
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M19:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -562,14 +568,20 @@
     <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -588,8 +600,26 @@
       <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -616,8 +646,29 @@
         <f>SUM(F2:F130)</f>
         <v>2926125</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SUMIF(C:C,K2,F:F)</f>
+        <v>327500</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1">
+        <f>AVERAGEIF(A:A,N2,E:E)</f>
+        <v>484.61538461538464</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1">
+        <f>COUNTIF(B:B,Q2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -637,8 +688,29 @@
         <f>D3*E3</f>
         <v>9000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L9" si="0">SUMIF(C:C,K3,F:F)</f>
+        <v>49050</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O6" si="1">AVERAGEIF(A:A,N3,E:E)</f>
+        <v>181.20689655172413</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R12" si="2">COUNTIF(B:B,Q3)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -661,8 +733,29 @@
       <c r="H4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>548000</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="1"/>
+        <v>707.14285714285711</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -685,8 +778,29 @@
       <c r="H5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>1610500</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>2609.5238095238096</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -709,8 +823,29 @@
       <c r="H6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>156000</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>380.55555555555554</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -730,8 +865,23 @@
         <f>D7*E7</f>
         <v>11250</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>103500</v>
+      </c>
+      <c r="N7"/>
+      <c r="Q7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -758,8 +908,23 @@
         <f>SUBTOTAL(9,F2:F10)</f>
         <v>86950</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>26475</v>
+      </c>
+      <c r="N8"/>
+      <c r="Q8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -779,8 +944,23 @@
         <f>D9*E9</f>
         <v>11250</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>105100</v>
+      </c>
+      <c r="N9"/>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -807,8 +987,17 @@
         <f>SUMIF(B:B,"hp",F:F)</f>
         <v>637000</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10"/>
+      <c r="N10"/>
+      <c r="Q10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -828,8 +1017,17 @@
         <f>D11*E11</f>
         <v>5950</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11"/>
+      <c r="N11"/>
+      <c r="Q11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -856,8 +1054,17 @@
         <f>SUMIF(A:A,A20,D:D)</f>
         <v>488</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12"/>
+      <c r="N12"/>
+      <c r="Q12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -877,8 +1084,11 @@
         <f>D13*E13</f>
         <v>5950</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13"/>
+      <c r="N13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -905,8 +1115,11 @@
         <f>SUMIF(A:A,H14,D:D)</f>
         <v>872</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14"/>
+      <c r="N14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -926,8 +1139,11 @@
         <f>D15*E15</f>
         <v>3250</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15"/>
+      <c r="N15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -947,8 +1163,11 @@
         <f>D16*E16</f>
         <v>3250</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K16"/>
+      <c r="N16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -968,8 +1187,11 @@
         <f>D17*E17</f>
         <v>6750</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K17"/>
+      <c r="N17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -989,8 +1211,11 @@
         <f>D18*E18</f>
         <v>6750</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K18"/>
+      <c r="N18"/>
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1010,8 +1235,11 @@
         <f>D19*E19</f>
         <v>6750</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K19"/>
+      <c r="N19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1259,11 @@
         <f>D20*E20</f>
         <v>6750</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K20"/>
+      <c r="N20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1052,8 +1283,11 @@
         <f>D21*E21</f>
         <v>5250</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K21"/>
+      <c r="N21"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1307,11 @@
         <f>D22*E22</f>
         <v>5250</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K22"/>
+      <c r="N22"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1094,8 +1331,11 @@
         <f>D23*E23</f>
         <v>5250</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K23"/>
+      <c r="N23"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1115,8 +1355,11 @@
         <f>D24*E24</f>
         <v>16000</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K24"/>
+      <c r="N24"/>
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1136,8 +1379,11 @@
         <f>D25*E25</f>
         <v>16000</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K25"/>
+      <c r="N25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1403,11 @@
         <f>D26*E26</f>
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K26"/>
+      <c r="N26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1178,8 +1427,11 @@
         <f>D27*E27</f>
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K27"/>
+      <c r="N27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -1199,8 +1451,11 @@
         <f>D28*E28</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K28"/>
+      <c r="N28"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -1220,8 +1475,11 @@
         <f>D29*E29</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K29"/>
+      <c r="N29"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -1241,8 +1499,11 @@
         <f>D30*E30</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K30"/>
+      <c r="N30"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -1262,8 +1523,11 @@
         <f>D31*E31</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K31"/>
+      <c r="N31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -1283,8 +1547,11 @@
         <f>D32*E32</f>
         <v>7500</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K32"/>
+      <c r="N32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -1304,8 +1571,11 @@
         <f>D33*E33</f>
         <v>7500</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K33"/>
+      <c r="N33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
@@ -1325,8 +1595,11 @@
         <f>D34*E34</f>
         <v>7500</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K34"/>
+      <c r="N34"/>
+      <c r="Q34"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -1346,8 +1619,11 @@
         <f>D35*E35</f>
         <v>7500</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K35"/>
+      <c r="N35"/>
+      <c r="Q35"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -1367,8 +1643,11 @@
         <f>D36*E36</f>
         <v>25000</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K36"/>
+      <c r="N36"/>
+      <c r="Q36"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -1388,8 +1667,11 @@
         <f>D37*E37</f>
         <v>25000</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K37"/>
+      <c r="N37"/>
+      <c r="Q37"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -1409,8 +1691,11 @@
         <f>D38*E38</f>
         <v>25000</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K38"/>
+      <c r="N38"/>
+      <c r="Q38"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -1430,8 +1715,11 @@
         <f>D39*E39</f>
         <v>25000</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K39"/>
+      <c r="N39"/>
+      <c r="Q39"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -1451,8 +1739,11 @@
         <f>D40*E40</f>
         <v>3825</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K40"/>
+      <c r="N40"/>
+      <c r="Q40"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -1472,8 +1763,11 @@
         <f>D41*E41</f>
         <v>3825</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K41"/>
+      <c r="N41"/>
+      <c r="Q41"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -1493,8 +1787,11 @@
         <f>D42*E42</f>
         <v>3825</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K42"/>
+      <c r="N42"/>
+      <c r="Q42"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -1514,8 +1811,11 @@
         <f>D43*E43</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K43"/>
+      <c r="N43"/>
+      <c r="Q43"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
@@ -1535,8 +1835,11 @@
         <f>D44*E44</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K44"/>
+      <c r="N44"/>
+      <c r="Q44"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -1556,8 +1859,11 @@
         <f>D45*E45</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K45"/>
+      <c r="N45"/>
+      <c r="Q45"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -1577,8 +1883,11 @@
         <f>D46*E46</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K46"/>
+      <c r="N46"/>
+      <c r="Q46"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -1598,8 +1907,11 @@
         <f>D47*E47</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K47"/>
+      <c r="N47"/>
+      <c r="Q47"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -1619,8 +1931,11 @@
         <f>D48*E48</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K48"/>
+      <c r="N48"/>
+      <c r="Q48"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
@@ -1640,8 +1955,11 @@
         <f>D49*E49</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K49"/>
+      <c r="N49"/>
+      <c r="Q49"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
@@ -1661,8 +1979,11 @@
         <f>D50*E50</f>
         <v>8750</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K50"/>
+      <c r="N50"/>
+      <c r="Q50"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>4</v>
       </c>
@@ -1682,8 +2003,11 @@
         <f>D51*E51</f>
         <v>8750</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K51"/>
+      <c r="N51"/>
+      <c r="Q51"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -1703,8 +2027,11 @@
         <f>D52*E52</f>
         <v>8750</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K52"/>
+      <c r="N52"/>
+      <c r="Q52"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -1724,8 +2051,11 @@
         <f>D53*E53</f>
         <v>8750</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K53"/>
+      <c r="N53"/>
+      <c r="Q53"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>4</v>
       </c>
@@ -1745,8 +2075,11 @@
         <f>D54*E54</f>
         <v>2300</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K54"/>
+      <c r="N54"/>
+      <c r="Q54"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
@@ -1766,8 +2099,11 @@
         <f>D55*E55</f>
         <v>2300</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K55"/>
+      <c r="N55"/>
+      <c r="Q55"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -1787,8 +2123,11 @@
         <f>D56*E56</f>
         <v>2300</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K56"/>
+      <c r="N56"/>
+      <c r="Q56"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -1808,8 +2147,11 @@
         <f>D57*E57</f>
         <v>15000</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K57"/>
+      <c r="N57"/>
+      <c r="Q57"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -1829,8 +2171,11 @@
         <f>D58*E58</f>
         <v>15000</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K58"/>
+      <c r="N58"/>
+      <c r="Q58"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -1850,8 +2195,11 @@
         <f>D59*E59</f>
         <v>15000</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K59"/>
+      <c r="N59"/>
+      <c r="Q59"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
@@ -1871,8 +2219,11 @@
         <f>D60*E60</f>
         <v>15000</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K60"/>
+      <c r="N60"/>
+      <c r="Q60"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -1892,8 +2243,11 @@
         <f>D61*E61</f>
         <v>6500</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K61"/>
+      <c r="N61"/>
+      <c r="Q61"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1913,8 +2267,11 @@
         <f>D62*E62</f>
         <v>6500</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K62"/>
+      <c r="N62"/>
+      <c r="Q62"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -1934,8 +2291,11 @@
         <f>D63*E63</f>
         <v>6500</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K63"/>
+      <c r="N63"/>
+      <c r="Q63"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
@@ -1955,8 +2315,11 @@
         <f>D64*E64</f>
         <v>6500</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K64"/>
+      <c r="N64"/>
+      <c r="Q64"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>9</v>
       </c>
@@ -1976,8 +2339,11 @@
         <f>D65*E65</f>
         <v>2500</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K65"/>
+      <c r="N65"/>
+      <c r="Q65"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -1997,8 +2363,11 @@
         <f>D66*E66</f>
         <v>2500</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K66"/>
+      <c r="N66"/>
+      <c r="Q66"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
@@ -2018,8 +2387,11 @@
         <f>D67*E67</f>
         <v>2500</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K67"/>
+      <c r="N67"/>
+      <c r="Q67"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -2039,8 +2411,11 @@
         <f>D68*E68</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K68"/>
+      <c r="N68"/>
+      <c r="Q68"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -2060,8 +2435,11 @@
         <f>D69*E69</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K69"/>
+      <c r="N69"/>
+      <c r="Q69"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -2081,8 +2459,11 @@
         <f>D70*E70</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K70"/>
+      <c r="N70"/>
+      <c r="Q70"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>16</v>
       </c>
@@ -2102,8 +2483,11 @@
         <f>D71*E71</f>
         <v>28500</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K71"/>
+      <c r="N71"/>
+      <c r="Q71"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>16</v>
       </c>
@@ -2123,8 +2507,11 @@
         <f>D72*E72</f>
         <v>48000</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K72"/>
+      <c r="N72"/>
+      <c r="Q72"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
@@ -2144,8 +2531,11 @@
         <f>D73*E73</f>
         <v>48000</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K73"/>
+      <c r="N73"/>
+      <c r="Q73"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>16</v>
       </c>
@@ -2165,8 +2555,11 @@
         <f>D74*E74</f>
         <v>48000</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K74"/>
+      <c r="N74"/>
+      <c r="Q74"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>16</v>
       </c>
@@ -2186,8 +2579,11 @@
         <f>D75*E75</f>
         <v>48000</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K75"/>
+      <c r="N75"/>
+      <c r="Q75"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -2207,8 +2603,11 @@
         <f>D76*E76</f>
         <v>27750</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K76"/>
+      <c r="N76"/>
+      <c r="Q76"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>16</v>
       </c>
@@ -2228,8 +2627,11 @@
         <f>D77*E77</f>
         <v>27750</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K77"/>
+      <c r="N77"/>
+      <c r="Q77"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>16</v>
       </c>
@@ -2249,8 +2651,11 @@
         <f>D78*E78</f>
         <v>27750</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K78"/>
+      <c r="N78"/>
+      <c r="Q78"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>16</v>
       </c>
@@ -2270,8 +2675,11 @@
         <f>D79*E79</f>
         <v>27750</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K79"/>
+      <c r="N79"/>
+      <c r="Q79"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>16</v>
       </c>
@@ -2291,8 +2699,11 @@
         <f>D80*E80</f>
         <v>70000</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K80"/>
+      <c r="N80"/>
+      <c r="Q80"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>16</v>
       </c>
@@ -2312,8 +2723,11 @@
         <f>D81*E81</f>
         <v>70000</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K81"/>
+      <c r="N81"/>
+      <c r="Q81"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>16</v>
       </c>
@@ -2333,8 +2747,11 @@
         <f>D82*E82</f>
         <v>70000</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K82"/>
+      <c r="N82"/>
+      <c r="Q82"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
@@ -2354,8 +2771,11 @@
         <f>D83*E83</f>
         <v>70000</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K83"/>
+      <c r="N83"/>
+      <c r="Q83"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>16</v>
       </c>
@@ -2375,8 +2795,11 @@
         <f>D84*E84</f>
         <v>112000</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K84"/>
+      <c r="N84"/>
+      <c r="Q84"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>16</v>
       </c>
@@ -2396,8 +2819,11 @@
         <f>D85*E85</f>
         <v>112000</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K85"/>
+      <c r="N85"/>
+      <c r="Q85"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>16</v>
       </c>
@@ -2417,8 +2843,11 @@
         <f>D86*E86</f>
         <v>112000</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K86"/>
+      <c r="N86"/>
+      <c r="Q86"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>16</v>
       </c>
@@ -2438,8 +2867,11 @@
         <f>D87*E87</f>
         <v>37000</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K87"/>
+      <c r="N87"/>
+      <c r="Q87"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -2459,8 +2891,11 @@
         <f>D88*E88</f>
         <v>37000</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K88"/>
+      <c r="N88"/>
+      <c r="Q88"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>16</v>
       </c>
@@ -2480,8 +2915,11 @@
         <f>D89*E89</f>
         <v>37000</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K89"/>
+      <c r="N89"/>
+      <c r="Q89"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>16</v>
       </c>
@@ -2501,8 +2939,11 @@
         <f>D90*E90</f>
         <v>37000</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K90"/>
+      <c r="N90"/>
+      <c r="Q90"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>16</v>
       </c>
@@ -2522,8 +2963,11 @@
         <f>D91*E91</f>
         <v>37500</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K91"/>
+      <c r="N91"/>
+      <c r="Q91"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>16</v>
       </c>
@@ -2543,8 +2987,11 @@
         <f>D92*E92</f>
         <v>37500</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K92"/>
+      <c r="N92"/>
+      <c r="Q92"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
@@ -2564,8 +3011,11 @@
         <f>D93*E93</f>
         <v>37500</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K93"/>
+      <c r="N93"/>
+      <c r="Q93"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>16</v>
       </c>
@@ -2585,8 +3035,11 @@
         <f>D94*E94</f>
         <v>60000</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K94"/>
+      <c r="N94"/>
+      <c r="Q94"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>16</v>
       </c>
@@ -2606,8 +3059,11 @@
         <f>D95*E95</f>
         <v>60000</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K95"/>
+      <c r="N95"/>
+      <c r="Q95"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>16</v>
       </c>
@@ -2627,8 +3083,11 @@
         <f>D96*E96</f>
         <v>60000</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K96"/>
+      <c r="N96"/>
+      <c r="Q96"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>16</v>
       </c>
@@ -2648,8 +3107,11 @@
         <f>D97*E97</f>
         <v>60000</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K97"/>
+      <c r="N97"/>
+      <c r="Q97"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>16</v>
       </c>
@@ -2669,8 +3131,11 @@
         <f>D98*E98</f>
         <v>48750</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K98"/>
+      <c r="N98"/>
+      <c r="Q98"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>16</v>
       </c>
@@ -2690,8 +3155,11 @@
         <f>D99*E99</f>
         <v>48750</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K99"/>
+      <c r="N99"/>
+      <c r="Q99"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>16</v>
       </c>
@@ -2711,8 +3179,11 @@
         <f>D100*E100</f>
         <v>48750</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K100"/>
+      <c r="N100"/>
+      <c r="Q100"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>16</v>
       </c>
@@ -2732,8 +3203,11 @@
         <f>D101*E101</f>
         <v>87500</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K101"/>
+      <c r="N101"/>
+      <c r="Q101"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>16</v>
       </c>
@@ -2753,8 +3227,11 @@
         <f>D102*E102</f>
         <v>87500</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K102"/>
+      <c r="N102"/>
+      <c r="Q102"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>16</v>
       </c>
@@ -2774,8 +3251,11 @@
         <f>D103*E103</f>
         <v>87500</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K103"/>
+      <c r="N103"/>
+      <c r="Q103"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>16</v>
       </c>
@@ -2795,8 +3275,11 @@
         <f>D104*E104</f>
         <v>87500</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K104"/>
+      <c r="N104"/>
+      <c r="Q104"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>16</v>
       </c>
@@ -2816,8 +3299,11 @@
         <f>D105*E105</f>
         <v>250000</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K105"/>
+      <c r="N105"/>
+      <c r="Q105"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>16</v>
       </c>
@@ -2837,8 +3323,11 @@
         <f>D106*E106</f>
         <v>8000</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K106"/>
+      <c r="N106"/>
+      <c r="Q106"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -2858,8 +3347,11 @@
         <f>D107*E107</f>
         <v>8000</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K107"/>
+      <c r="N107"/>
+      <c r="Q107"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>16</v>
       </c>
@@ -2879,8 +3371,11 @@
         <f>D108*E108</f>
         <v>8000</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K108"/>
+      <c r="N108"/>
+      <c r="Q108"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>16</v>
       </c>
@@ -2900,8 +3395,11 @@
         <f>D109*E109</f>
         <v>14800</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K109"/>
+      <c r="N109"/>
+      <c r="Q109"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>16</v>
       </c>
@@ -2921,8 +3419,11 @@
         <f>D110*E110</f>
         <v>14800</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K110"/>
+      <c r="N110"/>
+      <c r="Q110"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>16</v>
       </c>
@@ -2942,8 +3443,11 @@
         <f>D111*E111</f>
         <v>14800</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K111"/>
+      <c r="N111"/>
+      <c r="Q111"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>16</v>
       </c>
@@ -2963,8 +3467,11 @@
         <f>D112*E112</f>
         <v>14800</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K112"/>
+      <c r="N112"/>
+      <c r="Q112"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>7</v>
       </c>
@@ -2984,8 +3491,11 @@
         <f>D113*E113</f>
         <v>3500</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K113"/>
+      <c r="N113"/>
+      <c r="Q113"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>7</v>
       </c>
@@ -3005,8 +3515,11 @@
         <f>D114*E114</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K114"/>
+      <c r="N114"/>
+      <c r="Q114"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>7</v>
       </c>
@@ -3026,8 +3539,11 @@
         <f>D115*E115</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K115"/>
+      <c r="N115"/>
+      <c r="Q115"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -3047,8 +3563,11 @@
         <f>D116*E116</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K116"/>
+      <c r="N116"/>
+      <c r="Q116"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>7</v>
       </c>
@@ -3068,8 +3587,11 @@
         <f>D117*E117</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K117"/>
+      <c r="N117"/>
+      <c r="Q117"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -3089,8 +3611,11 @@
         <f>D118*E118</f>
         <v>6000</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K118"/>
+      <c r="N118"/>
+      <c r="Q118"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>7</v>
       </c>
@@ -3110,8 +3635,11 @@
         <f>D119*E119</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K119"/>
+      <c r="N119"/>
+      <c r="Q119"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>7</v>
       </c>
@@ -3131,8 +3659,11 @@
         <f>D120*E120</f>
         <v>9600</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K120"/>
+      <c r="N120"/>
+      <c r="Q120"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>7</v>
       </c>
@@ -3152,8 +3683,11 @@
         <f>D121*E121</f>
         <v>9600</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K121"/>
+      <c r="N121"/>
+      <c r="Q121"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>7</v>
       </c>
@@ -3173,8 +3707,11 @@
         <f>D122*E122</f>
         <v>9600</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K122"/>
+      <c r="N122"/>
+      <c r="Q122"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>7</v>
       </c>
@@ -3194,8 +3731,11 @@
         <f>D123*E123</f>
         <v>1050</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K123"/>
+      <c r="N123"/>
+      <c r="Q123"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>7</v>
       </c>
@@ -3215,8 +3755,11 @@
         <f>D124*E124</f>
         <v>1050</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K124"/>
+      <c r="N124"/>
+      <c r="Q124"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>7</v>
       </c>
@@ -3236,8 +3779,11 @@
         <f>D125*E125</f>
         <v>1050</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K125"/>
+      <c r="N125"/>
+      <c r="Q125"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>7</v>
       </c>
@@ -3257,8 +3803,11 @@
         <f>D126*E126</f>
         <v>1050</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K126"/>
+      <c r="N126"/>
+      <c r="Q126"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>7</v>
       </c>
@@ -3278,8 +3827,11 @@
         <f>D127*E127</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K127"/>
+      <c r="N127"/>
+      <c r="Q127"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>7</v>
       </c>
@@ -3299,8 +3851,11 @@
         <f>D128*E128</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K128"/>
+      <c r="N128"/>
+      <c r="Q128"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>7</v>
       </c>
@@ -3320,8 +3875,11 @@
         <f>D129*E129</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K129"/>
+      <c r="N129"/>
+      <c r="Q129"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>7</v>
       </c>
@@ -3341,6 +3899,9 @@
         <f>D130*E130</f>
         <v>1500</v>
       </c>
+      <c r="K130"/>
+      <c r="N130"/>
+      <c r="Q130"/>
     </row>
   </sheetData>
   <sortState ref="A2:F130">
